--- a/MWS/Application/MwsSimulation2/Doc/MWS_見積書パラメタファイル定義.xlsx
+++ b/MWS/Application/MwsSimulation2/Doc/MWS_見積書パラメタファイル定義.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PaletteCollection\ProtoTyping\個人用\suguro\MWS\Application\MwsSimulation\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceTree\MWS\Application\MwsSimulation2\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BF838A52-24E7-4651-B13F-5E7A1190160C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5C63BFEB-2516-4389-9CAA-1E138424D2B6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17145" windowHeight="8190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6964" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6964" uniqueCount="460">
   <si>
     <t>&lt;PaperName&gt;</t>
   </si>
@@ -2873,13 +2873,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>御中</t>
-    <rPh sb="0" eb="2">
-      <t>オンチュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&lt;郵便番号&gt;</t>
     <rPh sb="1" eb="3">
       <t>ユウビン</t>
@@ -3027,16 +3020,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>お見積金額</t>
-    <rPh sb="1" eb="3">
-      <t>ミツモリ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キンガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>発注金額</t>
     <rPh sb="0" eb="2">
       <t>ハッチュウ</t>
@@ -3047,10 +3030,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ＭＩＣ ＷＥＢ ＳＥＲＶＩＣＥ見積書</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1075</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3131,13 +3110,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ＭＩＣ ＷＥＢ ＳＥＲＶＩＣＥ注文請書</t>
-    <rPh sb="15" eb="17">
-      <t>チュウモン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>;医院情報</t>
     <rPh sb="1" eb="3">
       <t>イイン</t>
@@ -3176,10 +3148,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>下記のとおり、お見積もり申し上げます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>担当：</t>
     <rPh sb="0" eb="2">
       <t>タントウ</t>
@@ -3195,10 +3163,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>下記のとおり、ご注文をお請け致しました。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1700</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3264,6 +3228,52 @@
   </si>
   <si>
     <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ＭＩＣ ＷＥＢ ＳＥＲＶＩＣＥ御見積書</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;御中&gt;</t>
+    <rPh sb="1" eb="3">
+      <t>オンチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>御見積金額</t>
+    <rPh sb="1" eb="3">
+      <t>ミツモリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下記のとおり、御注文をお請け致しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>御発注金額</t>
+    <rPh sb="1" eb="3">
+      <t>ハッチュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ＭＩＣ ＷＥＢ ＳＥＲＶＩＣＥ御注文請書</t>
+    <rPh sb="16" eb="18">
+      <t>チュウモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下記のとおり、御見積もり申し上げます。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3669,8 +3679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
-      <selection activeCell="I367" sqref="I367"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3789,7 +3799,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="I9" s="2" t="str">
         <f>A9</f>
@@ -3853,7 +3863,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="I13" s="2" t="str">
         <f>A13</f>
@@ -3919,7 +3929,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>421</v>
+        <v>453</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>236</v>
@@ -3941,7 +3951,7 @@
       </c>
       <c r="I16" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>ＭＩＣ ＷＥＢ ＳＥＲＶＩＣＥ見積書=75,50,1075,100,C</v>
+        <v>ＭＩＣ ＷＥＢ ＳＥＲＶＩＣＥ御見積書=75,50,1075,100,C</v>
       </c>
       <c r="J16" s="2"/>
     </row>
@@ -3974,7 +3984,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>236</v>
@@ -4029,7 +4039,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>236</v>
@@ -4084,7 +4094,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>236</v>
@@ -4139,7 +4149,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="I25" s="2" t="str">
         <f>A25</f>
@@ -4163,7 +4173,7 @@
         <v>47</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G26" s="1">
         <v>1</v>
@@ -4184,10 +4194,10 @@
         <v>17</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F27" s="7">
         <v>100</v>
@@ -4211,13 +4221,13 @@
         <v>236</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F28" s="1">
         <v>175</v>
@@ -4244,7 +4254,7 @@
         <v>32</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E29" s="7">
         <v>550</v>
@@ -4271,13 +4281,13 @@
         <v>236</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -4292,7 +4302,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>236</v>
@@ -4301,7 +4311,7 @@
         <v>16</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>24</v>
@@ -4320,7 +4330,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>391</v>
+        <v>454</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>236</v>
@@ -4329,7 +4339,7 @@
         <v>26</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>21</v>
@@ -4342,12 +4352,12 @@
       </c>
       <c r="I32" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>御中=975,300,125,75,L</v>
+        <v>&lt;御中&gt;=975,300,125,75,L</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>236</v>
@@ -4356,7 +4366,7 @@
         <v>42</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>24</v>
@@ -4369,21 +4379,21 @@
       </c>
       <c r="I33" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>下記のとおり、お見積もり申し上げます。=175,400,875,50,L</v>
+        <v>下記のとおり、御見積もり申し上げます。=175,400,875,50,L</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>419</v>
+        <v>455</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>236</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>33</v>
@@ -4396,7 +4406,7 @@
       </c>
       <c r="I34" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>お見積金額=250,500,200,50,R</v>
+        <v>御見積金額=250,500,200,50,R</v>
       </c>
       <c r="J34" s="2"/>
     </row>
@@ -4439,7 +4449,7 @@
         <v>27</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>17</v>
@@ -4457,7 +4467,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>236</v>
@@ -4540,7 +4550,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I41" s="2" t="str">
         <f>A41</f>
@@ -4549,7 +4559,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>236</v>
@@ -4561,10 +4571,10 @@
         <v>21</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>412</v>
       </c>
       <c r="I42" s="5" t="str">
         <f>A42 &amp; B42 &amp; C42 &amp; "," &amp; D42 &amp; "," &amp; E42 &amp; "," &amp; F42 &amp; "," &amp; G42</f>
@@ -4578,7 +4588,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="I44" s="2" t="str">
         <f>A44</f>
@@ -4599,7 +4609,7 @@
         <v>385</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>17</v>
@@ -4615,7 +4625,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>236</v>
@@ -4624,7 +4634,7 @@
         <v>212</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>42</v>
@@ -4655,7 +4665,7 @@
         <v>388</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>17</v>
@@ -4683,7 +4693,7 @@
         <v>389</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>17</v>
@@ -4766,7 +4776,7 @@
         <v>387</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>17</v>
@@ -4787,7 +4797,7 @@
         <v>236</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>384</v>
@@ -4809,7 +4819,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>236</v>
@@ -4818,7 +4828,7 @@
         <v>212</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="E53" s="1">
         <v>100</v>
@@ -4845,7 +4855,7 @@
         <v>214</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>37</v>
@@ -4867,7 +4877,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="I56" s="2" t="str">
         <f>A56</f>
@@ -13472,7 +13482,7 @@
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A364" s="4" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
@@ -13497,7 +13507,7 @@
         <v>41</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E365" s="1" t="s">
         <v>21</v>
@@ -13524,7 +13534,7 @@
         <v>15</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E366" s="1" t="s">
         <v>33</v>
@@ -13542,7 +13552,7 @@
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A367" s="1" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>236</v>
@@ -13551,7 +13561,7 @@
         <v>41</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E367" s="1" t="s">
         <v>21</v>
@@ -13560,7 +13570,7 @@
         <v>17</v>
       </c>
       <c r="G367" s="1" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="I367" s="2" t="str">
         <f>A367 &amp; B367 &amp; C367 &amp; "," &amp; D367 &amp; "," &amp; E367 &amp; "," &amp; F367 &amp; "," &amp; G367</f>
@@ -13569,7 +13579,7 @@
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A368" s="4" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B368" s="4" t="s">
         <v>236</v>
@@ -13578,7 +13588,7 @@
         <v>15</v>
       </c>
       <c r="D368" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E368" s="4" t="s">
         <v>33</v>
@@ -13597,7 +13607,7 @@
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A370" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I370" s="2" t="str">
         <f>A370</f>
@@ -13612,16 +13622,16 @@
         <v>236</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D371" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E371" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="E371" s="1" t="s">
+      <c r="F371" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="F371" s="1" t="s">
-        <v>402</v>
       </c>
       <c r="G371" s="1">
         <v>1</v>
@@ -13642,13 +13652,13 @@
         <v>218</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F372" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G372" s="1">
         <v>1</v>
@@ -13660,22 +13670,22 @@
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A373" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B373" s="1" t="s">
         <v>236</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D373" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E373" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="E373" s="1" t="s">
+      <c r="F373" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="F373" s="1" t="s">
-        <v>402</v>
       </c>
       <c r="G373" s="1" t="s">
         <v>11</v>
@@ -13687,7 +13697,7 @@
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A374" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B374" s="4" t="s">
         <v>236</v>
@@ -13696,10 +13706,10 @@
         <v>218</v>
       </c>
       <c r="D374" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E374" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F374" s="4" t="s">
         <v>17</v>
@@ -13733,7 +13743,7 @@
         <v>25</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E377" s="1">
         <v>1900</v>
@@ -13760,7 +13770,7 @@
         <v>50</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E378" s="1">
         <v>100</v>
@@ -13787,7 +13797,7 @@
         <v>17</v>
       </c>
       <c r="D379" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E379" s="4" t="s">
         <v>373</v>
@@ -13815,7 +13825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2701741A-393D-4B26-9043-EBD8F62A7505}">
   <dimension ref="A1:J364"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
@@ -13833,7 +13843,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I1" s="2" t="str">
         <f>A1</f>
@@ -13848,7 +13858,7 @@
         <v>236</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I2" s="8" t="str">
         <f t="shared" ref="I2:I7" si="0">A2 &amp; B2 &amp; C2</f>
@@ -13935,7 +13945,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="I9" s="2" t="str">
         <f>A9</f>
@@ -13999,7 +14009,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="I13" s="2" t="str">
         <f>A13</f>
@@ -14065,7 +14075,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>236</v>
@@ -14120,7 +14130,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>236</v>
@@ -14175,7 +14185,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>236</v>
@@ -14230,7 +14240,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>236</v>
@@ -14285,7 +14295,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="I25" s="2" t="str">
         <f>A25</f>
@@ -14309,7 +14319,7 @@
         <v>47</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G26" s="1">
         <v>1</v>
@@ -14330,10 +14340,10 @@
         <v>17</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F27" s="7">
         <v>100</v>
@@ -14360,10 +14370,10 @@
         <v>42</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F28" s="1">
         <v>175</v>
@@ -14390,7 +14400,7 @@
         <v>32</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E29" s="7">
         <v>550</v>
@@ -14417,13 +14427,13 @@
         <v>236</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -14438,7 +14448,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>236</v>
@@ -14447,7 +14457,7 @@
         <v>16</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>24</v>
@@ -14465,7 +14475,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>236</v>
@@ -14474,7 +14484,7 @@
         <v>26</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>21</v>
@@ -14492,7 +14502,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>236</v>
@@ -14501,7 +14511,7 @@
         <v>42</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>24</v>
@@ -14519,16 +14529,16 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>236</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>33</v>
@@ -14582,7 +14592,7 @@
         <v>27</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>17</v>
@@ -14600,7 +14610,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>236</v>
@@ -14681,7 +14691,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I41" s="2" t="str">
         <f>A41</f>
@@ -14690,7 +14700,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>236</v>
@@ -14705,7 +14715,7 @@
         <v>34</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I42" s="5" t="str">
         <f>A42 &amp; B42 &amp; C42 &amp; "," &amp; D42 &amp; "," &amp; E42 &amp; "," &amp; F42 &amp; "," &amp; G42</f>
@@ -14717,7 +14727,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I44" s="2" t="str">
         <f>A44</f>
@@ -14726,7 +14736,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" s="4" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>236</v>
@@ -14735,10 +14745,10 @@
         <v>212</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>17</v>
@@ -14756,7 +14766,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="I47" s="2" t="str">
         <f>A47</f>
@@ -23350,7 +23360,7 @@
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A355" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I355" s="2" t="str">
         <f>A355</f>
@@ -23365,10 +23375,10 @@
         <v>236</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E356" s="1" t="s">
         <v>21</v>
@@ -23395,10 +23405,10 @@
         <v>218</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F357" s="1" t="s">
         <v>17</v>
@@ -23413,16 +23423,16 @@
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A358" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>236</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E358" s="1" t="s">
         <v>21</v>
@@ -23440,7 +23450,7 @@
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A359" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B359" s="4" t="s">
         <v>236</v>
@@ -23449,10 +23459,10 @@
         <v>218</v>
       </c>
       <c r="D359" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E359" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F359" s="4" t="s">
         <v>17</v>
@@ -23486,7 +23496,7 @@
         <v>25</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E362" s="1">
         <v>1900</v>
@@ -23513,7 +23523,7 @@
         <v>50</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E363" s="1">
         <v>100</v>
@@ -23540,7 +23550,7 @@
         <v>17</v>
       </c>
       <c r="D364" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E364" s="4" t="s">
         <v>373</v>
@@ -23568,8 +23578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F83D3CD-AD2A-4EF2-8255-573DF3DB5534}">
   <dimension ref="A1:J374"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -23586,7 +23596,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I1" s="2" t="str">
         <f>A1</f>
@@ -23601,7 +23611,7 @@
         <v>236</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I2" s="8" t="str">
         <f t="shared" ref="I2:I7" si="0">A2 &amp; B2 &amp; C2</f>
@@ -23688,7 +23698,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="I9" s="2" t="str">
         <f>A9</f>
@@ -23752,7 +23762,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="I13" s="2" t="str">
         <f>A13</f>
@@ -23818,7 +23828,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>433</v>
+        <v>458</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>236</v>
@@ -23840,7 +23850,7 @@
       </c>
       <c r="I16" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>ＭＩＣ ＷＥＢ ＳＥＲＶＩＣＥ注文請書=75,50,1075,100,C</v>
+        <v>ＭＩＣ ＷＥＢ ＳＥＲＶＩＣＥ御注文請書=75,50,1075,100,C</v>
       </c>
       <c r="J16" s="2"/>
     </row>
@@ -23873,7 +23883,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>236</v>
@@ -23928,7 +23938,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>236</v>
@@ -23983,7 +23993,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>236</v>
@@ -24038,7 +24048,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="I25" s="2" t="str">
         <f>A25</f>
@@ -24062,7 +24072,7 @@
         <v>47</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G26" s="1">
         <v>1</v>
@@ -24083,10 +24093,10 @@
         <v>17</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F27" s="7">
         <v>100</v>
@@ -24113,10 +24123,10 @@
         <v>42</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F28" s="1">
         <v>175</v>
@@ -24143,7 +24153,7 @@
         <v>32</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E29" s="7">
         <v>550</v>
@@ -24170,13 +24180,13 @@
         <v>236</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -24191,7 +24201,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>236</v>
@@ -24200,7 +24210,7 @@
         <v>16</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>24</v>
@@ -24218,7 +24228,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>391</v>
+        <v>454</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>236</v>
@@ -24227,7 +24237,7 @@
         <v>26</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>21</v>
@@ -24240,12 +24250,12 @@
       </c>
       <c r="I32" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>御中=975,300,125,75,L</v>
+        <v>&lt;御中&gt;=975,300,125,75,L</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>236</v>
@@ -24254,7 +24264,7 @@
         <v>42</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>24</v>
@@ -24267,21 +24277,21 @@
       </c>
       <c r="I33" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>下記のとおり、ご注文をお請け致しました。=175,400,875,50,L</v>
+        <v>下記のとおり、御注文をお請け致しました。=175,400,875,50,L</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>420</v>
+        <v>457</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>236</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>33</v>
@@ -24294,7 +24304,7 @@
       </c>
       <c r="I34" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>発注金額=250,500,200,50,R</v>
+        <v>御発注金額=250,500,200,50,R</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
@@ -24335,7 +24345,7 @@
         <v>27</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>17</v>
@@ -24353,7 +24363,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>236</v>
@@ -24434,7 +24444,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I41" s="2" t="str">
         <f>A41</f>
@@ -24443,7 +24453,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>236</v>
@@ -24458,7 +24468,7 @@
         <v>34</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I42" s="5" t="str">
         <f>A42 &amp; B42 &amp; C42 &amp; "," &amp; D42 &amp; "," &amp; E42 &amp; "," &amp; F42 &amp; "," &amp; G42</f>
@@ -24467,13 +24477,13 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>236</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>21</v>
@@ -24495,7 +24505,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="I45" s="2" t="str">
         <f>A45</f>
@@ -24516,7 +24526,7 @@
         <v>385</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>17</v>
@@ -24531,7 +24541,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>236</v>
@@ -24540,7 +24550,7 @@
         <v>212</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>42</v>
@@ -24570,7 +24580,7 @@
         <v>388</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>17</v>
@@ -24597,7 +24607,7 @@
         <v>389</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>17</v>
@@ -24699,7 +24709,7 @@
         <v>236</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>384</v>
@@ -24720,7 +24730,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>236</v>
@@ -24729,7 +24739,7 @@
         <v>212</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="E54" s="1">
         <v>100</v>
@@ -24756,7 +24766,7 @@
         <v>214</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>37</v>
@@ -24777,7 +24787,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="I57" s="2" t="str">
         <f>A57</f>
@@ -33371,7 +33381,7 @@
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A365" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I365" s="2" t="str">
         <f>A365</f>
@@ -33386,10 +33396,10 @@
         <v>236</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E366" s="1" t="s">
         <v>21</v>
@@ -33416,10 +33426,10 @@
         <v>218</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F367" s="1" t="s">
         <v>17</v>
@@ -33434,16 +33444,16 @@
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A368" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>236</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E368" s="1" t="s">
         <v>21</v>
@@ -33461,7 +33471,7 @@
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A369" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B369" s="4" t="s">
         <v>236</v>
@@ -33470,10 +33480,10 @@
         <v>218</v>
       </c>
       <c r="D369" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E369" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F369" s="4" t="s">
         <v>17</v>
@@ -33507,7 +33517,7 @@
         <v>25</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E372" s="1">
         <v>1900</v>
@@ -33534,7 +33544,7 @@
         <v>50</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E373" s="1">
         <v>100</v>
@@ -33561,7 +33571,7 @@
         <v>17</v>
       </c>
       <c r="D374" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E374" s="4" t="s">
         <v>373</v>

--- a/MWS/Application/MwsSimulation2/Doc/MWS_見積書パラメタファイル定義.xlsx
+++ b/MWS/Application/MwsSimulation2/Doc/MWS_見積書パラメタファイル定義.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceTree\MWS\Application\MwsSimulation2\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5C63BFEB-2516-4389-9CAA-1E138424D2B6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B5442990-53FE-4004-956F-0EBE5BFE0B6C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17145" windowHeight="8190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17145" windowHeight="8190" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="見積書" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6964" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6964" uniqueCount="464">
   <si>
     <t>&lt;PaperName&gt;</t>
   </si>
@@ -3274,6 +3274,28 @@
   </si>
   <si>
     <t>下記のとおり、御見積もり申し上げます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;当西暦&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;当月&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;当日&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;当西暦&gt;</t>
+    <rPh sb="1" eb="2">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイレキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3679,8 +3701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -13825,8 +13847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2701741A-393D-4B26-9043-EBD8F62A7505}">
   <dimension ref="A1:J364"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -14130,7 +14152,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
-        <v>393</v>
+        <v>463</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>236</v>
@@ -14152,7 +14174,7 @@
       </c>
       <c r="I18" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;発行西暦&gt;=775,150,100,50,C</v>
+        <v>&lt;当西暦&gt;=775,150,100,50,C</v>
       </c>
       <c r="J18" s="2"/>
     </row>
@@ -14185,7 +14207,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
-        <v>394</v>
+        <v>461</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>236</v>
@@ -14207,7 +14229,7 @@
       </c>
       <c r="I20" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;発行月&gt;=925,150,50,50,C</v>
+        <v>&lt;当月&gt;=925,150,50,50,C</v>
       </c>
       <c r="J20" s="2"/>
     </row>
@@ -14240,7 +14262,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
-        <v>395</v>
+        <v>462</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>236</v>
@@ -14262,7 +14284,7 @@
       </c>
       <c r="I22" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;発行日&gt;=1025,150,50,50,C</v>
+        <v>&lt;当日&gt;=1025,150,50,50,C</v>
       </c>
       <c r="J22" s="2"/>
     </row>
@@ -23578,8 +23600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F83D3CD-AD2A-4EF2-8255-573DF3DB5534}">
   <dimension ref="A1:J374"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -23883,7 +23905,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
-        <v>393</v>
+        <v>460</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>236</v>
@@ -23905,7 +23927,7 @@
       </c>
       <c r="I18" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;発行西暦&gt;=775,150,100,50,C</v>
+        <v>&lt;当西暦&gt;=775,150,100,50,C</v>
       </c>
       <c r="J18" s="2"/>
     </row>
@@ -23938,7 +23960,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
-        <v>394</v>
+        <v>461</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>236</v>
@@ -23960,7 +23982,7 @@
       </c>
       <c r="I20" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;発行月&gt;=925,150,50,50,C</v>
+        <v>&lt;当月&gt;=925,150,50,50,C</v>
       </c>
       <c r="J20" s="2"/>
     </row>
@@ -23993,7 +24015,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
-        <v>395</v>
+        <v>462</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>236</v>
@@ -24015,7 +24037,7 @@
       </c>
       <c r="I22" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;発行日&gt;=1025,150,50,50,C</v>
+        <v>&lt;当日&gt;=1025,150,50,50,C</v>
       </c>
       <c r="J22" s="2"/>
     </row>
